--- a/contest/report.xlsx
+++ b/contest/report.xlsx
@@ -733,19 +733,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>91795</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>116651</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>1115</v>
       </c>
     </row>
